--- a/task2/Data.xlsx
+++ b/task2/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coursework\Senior\Fall 22'\Aero417\gasprop\RealCycle\RealEngineCycle_TurboProp\task2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAAB9D54-F9F4-4CEF-ACC1-1EABD35DE183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2398ECF1-52EB-4559-B8B6-7A7C01A85FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="3675" windowWidth="18225" windowHeight="11333" xr2:uid="{94EC9EFC-137E-4331-865C-5AC272FBCB17}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{94EC9EFC-137E-4331-865C-5AC272FBCB17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>330</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
